--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -32,13 +32,13 @@
     <t>SHOPPING AND SMALL VALUE PROCUREMENT</t>
   </si>
   <si>
-    <t>Arisabel Clubhouse Inc.</t>
-  </si>
-  <si>
-    <t>Aris Roberto Abejero Jr.</t>
-  </si>
-  <si>
-    <t>Economic Garden Brgy. Timugan. Los Ba�os, Laguna</t>
+    <t>livelo  Trading</t>
+  </si>
+  <si>
+    <t>Lenylyn Livelo Gutierrez</t>
+  </si>
+  <si>
+    <t>National Highway, Dayap Caluan Laguna</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
@@ -53,19 +53,19 @@
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2020-0090</t>
+    <t>2020-0094</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
   </si>
   <si>
-    <t>5,100</t>
+    <t>16,000</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Meals for HRMPSB Meeting </t>
+    <t>Test</t>
   </si>
   <si>
     <t>End User</t>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Republic of  the philippines</t>
   </si>
@@ -32,13 +32,13 @@
     <t>SHOPPING AND SMALL VALUE PROCUREMENT</t>
   </si>
   <si>
-    <t>livelo  Trading</t>
-  </si>
-  <si>
-    <t>Lenylyn Livelo Gutierrez</t>
-  </si>
-  <si>
-    <t>National Highway, Dayap Caluan Laguna</t>
+    <t>Crimson Hotel Filinvest City,</t>
+  </si>
+  <si>
+    <t>Angeli Balanon</t>
+  </si>
+  <si>
+    <t>Entrata Urban Complex, 2609  Civic Drive Filinvest City Alabang Muntilupa City</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
@@ -53,19 +53,16 @@
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2020-0094</t>
+    <t>2020-0071</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
   </si>
   <si>
-    <t>16,000</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">Test </t>
   </si>
   <si>
     <t>End User</t>
@@ -809,8 +806,8 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="5" t="s">
-        <v>14</v>
+      <c r="D24" s="5">
+        <v>480</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -821,12 +818,12 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -873,12 +870,12 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -901,7 +898,7 @@
     </row>
     <row r="31" spans="1:10" customHeight="1" ht="14.45">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -915,7 +912,7 @@
     </row>
     <row r="32" spans="1:10" customHeight="1" ht="14.45">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -941,7 +938,7 @@
     </row>
     <row r="34" spans="1:10" customHeight="1" ht="14.45">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -967,14 +964,14 @@
     </row>
     <row r="36" spans="1:10" customHeight="1" ht="14.45">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -995,14 +992,14 @@
     </row>
     <row r="38" spans="1:10" customHeight="1" ht="14.45">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1011,14 +1008,14 @@
     </row>
     <row r="39" spans="1:10" customHeight="1" ht="14.45">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Republic of  the philippines</t>
   </si>
@@ -32,13 +32,13 @@
     <t>SHOPPING AND SMALL VALUE PROCUREMENT</t>
   </si>
   <si>
-    <t>Crimson Hotel Filinvest City,</t>
-  </si>
-  <si>
-    <t>Angeli Balanon</t>
-  </si>
-  <si>
-    <t>Entrata Urban Complex, 2609  Civic Drive Filinvest City Alabang Muntilupa City</t>
+    <t>livelo  Trading</t>
+  </si>
+  <si>
+    <t>Lenylyn Livelo Gutierrez</t>
+  </si>
+  <si>
+    <t>National Highway, Dayap Caluan Laguna</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
@@ -53,16 +53,19 @@
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2020-0071</t>
+    <t>2020-0094</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
   </si>
   <si>
+    <t>16,000</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
+    <t>Test</t>
   </si>
   <si>
     <t>End User</t>
@@ -806,8 +809,8 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="5">
-        <v>480</v>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -818,12 +821,12 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -870,12 +873,12 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -898,7 +901,7 @@
     </row>
     <row r="31" spans="1:10" customHeight="1" ht="14.45">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -912,7 +915,7 @@
     </row>
     <row r="32" spans="1:10" customHeight="1" ht="14.45">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -938,7 +941,7 @@
     </row>
     <row r="34" spans="1:10" customHeight="1" ht="14.45">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -964,14 +967,14 @@
     </row>
     <row r="36" spans="1:10" customHeight="1" ht="14.45">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -992,14 +995,14 @@
     </row>
     <row r="38" spans="1:10" customHeight="1" ht="14.45">
       <c r="A38" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1008,14 +1011,14 @@
     </row>
     <row r="39" spans="1:10" customHeight="1" ht="14.45">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Republic of  the philippines</t>
   </si>
@@ -26,46 +26,43 @@
     <t>Region Office IV - A</t>
   </si>
   <si>
-    <t>BIDS AND AWARDS COMITEE</t>
-  </si>
-  <si>
-    <t>SHOPPING AND SMALL VALUE PROCUREMENT</t>
+    <t>BIDS AND AWARDS COMMITTEE</t>
+  </si>
+  <si>
+    <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
+  </si>
+  <si>
+    <t>Lenylyn Livelo Gutierrez</t>
   </si>
   <si>
     <t>livelo  Trading</t>
   </si>
   <si>
-    <t>Lenylyn Livelo Gutierrez</t>
-  </si>
-  <si>
     <t>National Highway, Dayap Caluan Laguna</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
   </si>
   <si>
-    <t xml:space="preserve">May we invite you to submit your quotation/proposal for the following Request for Quotation </t>
-  </si>
-  <si>
-    <t>(RFQ):</t>
+    <t>May we invite you to submit your quotation/proposal for the following Request for Quotation (RFQ):</t>
   </si>
   <si>
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2020-0094</t>
+    <t>2020-00101</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
   </si>
   <si>
-    <t>16,000</t>
+    <t>85,200</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Test</t>
+    <t xml:space="preserve">For the internet connectivity of C/MLGOOs for May and June 2020 </t>
   </si>
   <si>
     <t>End User</t>
@@ -74,10 +71,7 @@
     <t>FAD</t>
   </si>
   <si>
-    <t xml:space="preserve">For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or </t>
-  </si>
-  <si>
-    <t>dilg4a.bac@gmail.com</t>
+    <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
   </si>
   <si>
     <t>Thank you.</t>
@@ -109,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -137,6 +131,15 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -207,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -226,6 +229,15 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -247,14 +259,8 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,73 +596,73 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="E1"/>
     </row>
-    <row r="6" spans="1:10" customHeight="1" ht="14.45">
+    <row r="6" spans="1:10">
       <c r="C6" s="1"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" customHeight="1" ht="14.45">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:10">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" customHeight="1" ht="14.45">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="C8" s="1"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:10" customHeight="1" ht="14.45">
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:10">
+      <c r="C10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="14.45">
-      <c r="C11" s="6" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A13" s="1" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1"/>
@@ -669,7 +675,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" customHeight="1" ht="14.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -683,7 +689,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" customHeight="1" ht="14.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,7 +703,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" customHeight="1" ht="14.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -709,7 +715,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" customHeight="1" ht="14.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -721,7 +727,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" customHeight="1" ht="14.45">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,7 +741,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" customHeight="1" ht="14.45">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -747,7 +753,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" customHeight="1" ht="14.45">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,12 +767,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:10" customHeight="1" ht="2.4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -775,26 +779,30 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" customHeight="1" ht="2.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+    <row r="22" spans="1:10" customHeight="1" ht="16.2">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" customHeight="1" ht="16.15">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+    <row r="23" spans="1:10" customHeight="1" ht="28.2">
+      <c r="A23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -803,92 +811,90 @@
       <c r="I23" s="5"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" customHeight="1" ht="28.15">
-      <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="5" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="13" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -899,8 +905,8 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1"/>
@@ -913,10 +919,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="32" spans="1:10">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -927,7 +930,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" customHeight="1" ht="14.45">
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -939,21 +942,23 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" customHeight="1" ht="14.45">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" customHeight="1" ht="14.45">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -965,43 +970,43 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="1"/>
@@ -1009,17 +1014,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1038,7 +1039,9 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1050,12 +1053,10 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1065,9 +1066,11 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1099,18 +1102,6 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
@@ -1118,16 +1109,16 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D25:I28"/>
-    <mergeCell ref="A25:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:I28"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:I24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Republic of  the philippines</t>
   </si>
@@ -32,19 +32,19 @@
     <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
   </si>
   <si>
-    <t>Lenylyn Livelo Gutierrez</t>
-  </si>
-  <si>
-    <t>livelo  Trading</t>
-  </si>
-  <si>
-    <t>National Highway, Dayap Caluan Laguna</t>
+    <t>Angeli Balanon</t>
+  </si>
+  <si>
+    <t>Crimson Hotel Filinvest City,</t>
+  </si>
+  <si>
+    <t>Entrata Urban Complex, 2609  Civic Drive Filinvest City Alabang Muntilupa City</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
   </si>
   <si>
-    <t>May we invite you to submit your quotation/proposal for the following Request for Quotation (RFQ):</t>
+    <t>May we invite you to submit your quotation for the following Request for Quotation (RFQ):</t>
   </si>
   <si>
     <t>RFQ NO.</t>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
-  </si>
-  <si>
-    <t>85,200</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -102,7 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <b val="0"/>
@@ -155,12 +154,17 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border/>
     <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -210,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -226,41 +230,53 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,67 +615,74 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.109375" customWidth="true" style="2"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="13.77734375" customWidth="true" style="2"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="1"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" s="1"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
@@ -768,9 +791,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="2.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -780,103 +803,103 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" customHeight="1" ht="28.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="20">
+        <v>85200</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10">
@@ -892,8 +915,8 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
-        <v>18</v>
+      <c r="A30" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -906,8 +929,8 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
-        <v>19</v>
+      <c r="A31" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -944,14 +967,14 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -971,27 +994,31 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="3" t="s">
-        <v>22</v>
+      <c r="A37" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3" t="s">
-        <v>23</v>
+      <c r="F37" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -999,16 +1026,12 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1040,7 +1063,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1066,11 +1089,11 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1111,6 +1134,7 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="D24:I27"/>
     <mergeCell ref="A24:C27"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="C11:H11"/>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -50,7 +50,7 @@
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2020-00101</t>
+    <t>2020-00100</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
@@ -59,7 +59,7 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">For the internet connectivity of C/MLGOOs for May and June 2020 </t>
+    <t>Personal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service)</t>
   </si>
   <si>
     <t>End User</t>
@@ -825,7 +825,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="20">
-        <v>85200</v>
+        <v>55920</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -32,13 +32,13 @@
     <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
   </si>
   <si>
-    <t>Angeli Balanon</t>
-  </si>
-  <si>
-    <t>Crimson Hotel Filinvest City,</t>
-  </si>
-  <si>
-    <t>Entrata Urban Complex, 2609  Civic Drive Filinvest City Alabang Muntilupa City</t>
+    <t xml:space="preserve">Cleopatra T. Ferrer </t>
+  </si>
+  <si>
+    <t>Marinold Grill Co.</t>
+  </si>
+  <si>
+    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
@@ -50,7 +50,7 @@
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2020-00100</t>
+    <t>2020-107</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
@@ -59,7 +59,7 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Personal Protective Equipment (PPE) for all DILG RIV-A Employees (Permanent and Contract of Service)</t>
+    <t xml:space="preserve">Replacement tires of DILG Service Vehicles (Crosswind 8994 and 8974) as part of Preventive Maintenance  </t>
   </si>
   <si>
     <t>End User</t>
@@ -162,23 +162,23 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -233,10 +233,25 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -252,30 +267,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -615,7 +615,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,53 +636,53 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="1"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" s="1"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
@@ -791,9 +791,9 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="2.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -803,29 +803,29 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" customHeight="1" ht="28.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="20">
-        <v>55920</v>
+        <v>52000</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -835,71 +835,71 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10">
@@ -1089,11 +1089,11 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1128,12 +1128,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D24:I27"/>
-    <mergeCell ref="A24:C27"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
@@ -1143,6 +1137,12 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -32,13 +32,13 @@
     <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleopatra T. Ferrer </t>
-  </si>
-  <si>
-    <t>Marinold Grill Co.</t>
-  </si>
-  <si>
-    <t>GF Marinold Grill Bldg. Ph2, Blk 2 lot 48 Pinagsama Village Taguig City</t>
+    <t>Lenylyn Livelo Gutierrez</t>
+  </si>
+  <si>
+    <t>livelo  Trading</t>
+  </si>
+  <si>
+    <t>National Highway, Dayap Caluan Laguna</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
